--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21700" yWindow="8440" windowWidth="26000" windowHeight="18560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
   <si>
     <t>type</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>registration</t>
+  </si>
+  <si>
+    <t>barcode</t>
   </si>
 </sst>
 </file>
@@ -853,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
@@ -1496,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1518,7 +1521,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -1529,7 +1532,7 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>73</v>

--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="101">
   <si>
     <t>type</t>
   </si>
@@ -311,6 +311,21 @@
   </si>
   <si>
     <t>barcode</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>disabled_reason</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>is_override</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -854,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1161,9 +1176,20 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1257,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1428,6 +1454,35 @@
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1499,7 +1554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="102">
   <si>
     <t>type</t>
   </si>
@@ -326,13 +326,16 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ignore_validation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -376,8 +379,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +441,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -470,7 +491,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -492,8 +513,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -518,8 +541,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -530,6 +560,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -540,6 +571,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -869,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1176,21 +1208,35 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="14" t="b">
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>45</v>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1285,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1478,6 +1524,14 @@
       </c>
       <c r="B23" s="5" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:2">

--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="26">
+      <c r="E23" s="26" t="b">
         <v>1</v>
       </c>
       <c r="F23" s="23"/>
@@ -1235,7 +1235,7 @@
       <c r="B24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1609,7 +1609,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="98">
   <si>
     <t>type</t>
   </si>
@@ -100,12 +100,6 @@
     <t>Beneficiary code</t>
   </si>
   <si>
-    <t>Confirm today's date.</t>
-  </si>
-  <si>
-    <t>Today</t>
-  </si>
-  <si>
     <t>What is your first name?</t>
   </si>
   <si>
@@ -127,12 +121,6 @@
     <t>instance_name</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>now()</t>
-  </si>
-  <si>
     <t>Registration</t>
   </si>
   <si>
@@ -319,9 +307,6 @@
     <t>disabled_reason</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>is_override</t>
   </si>
   <si>
@@ -329,6 +314,9 @@
   </si>
   <si>
     <t>ignore_validation</t>
+  </si>
+  <si>
+    <t>now().getTime()</t>
   </si>
 </sst>
 </file>
@@ -454,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -490,8 +478,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -515,8 +527,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -541,15 +555,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -561,6 +577,7 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -572,6 +589,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -901,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -931,236 +949,233 @@
         <v>18</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>28</v>
       </c>
+      <c r="B3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="A5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>93</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>69</v>
+        <v>27</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1168,75 +1183,89 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="17"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="23"/>
+      <c r="A23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="20" t="b">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1311,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1298,7 +1327,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1306,15 +1335,15 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1361,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1379,23 +1408,23 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1403,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1411,15 +1440,15 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1427,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1435,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1451,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1459,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1475,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1491,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1504,10 +1533,10 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1515,28 +1544,28 @@
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1568,7 +1597,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -1577,20 +1606,20 @@
         <v>17</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
       <c r="A3" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1616,10 +1645,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30">
       <c r="A1" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>17</v>
@@ -1627,145 +1656,145 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
         <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
         <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="model" sheetId="2" r:id="rId3"/>
     <sheet name="initial" sheetId="4" r:id="rId4"/>
     <sheet name="choices" sheetId="5" r:id="rId5"/>
+    <sheet name="calculates" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="88">
   <si>
     <t>type</t>
   </si>
@@ -43,9 +44,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
     <t>telephone</t>
   </si>
   <si>
@@ -91,15 +89,9 @@
     <t>Address</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>Telephone number</t>
   </si>
   <si>
-    <t>Beneficiary code</t>
-  </si>
-  <si>
     <t>What is your first name?</t>
   </si>
   <si>
@@ -139,12 +131,6 @@
     <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
   </si>
   <si>
-    <t>Enter or update their barcode.</t>
-  </si>
-  <si>
-    <t>Scan their barcode.</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -154,24 +140,6 @@
     <t>What is your current address?</t>
   </si>
   <si>
-    <t>What sub-village/sub-neighborhood do you live in?</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>What district do you live in?</t>
-  </si>
-  <si>
-    <t>What city/township do you live in?</t>
-  </si>
-  <si>
-    <t>village</t>
-  </si>
-  <si>
-    <t>What village/neighborhood do you live in?</t>
-  </si>
-  <si>
     <t>distribution_site</t>
   </si>
   <si>
@@ -271,12 +239,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>sub_village</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>id_type</t>
   </si>
   <si>
@@ -292,15 +254,9 @@
     <t>What is your date of birth?</t>
   </si>
   <si>
-    <t>(now().getTime() - new Date(data('birth_date')).getTime()) / (1000 * 60 * 60 * 24 * 365)</t>
-  </si>
-  <si>
     <t>registration</t>
   </si>
   <si>
-    <t>barcode</t>
-  </si>
-  <si>
     <t>is_active</t>
   </si>
   <si>
@@ -310,20 +266,49 @@
     <t>is_override</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>ignore_validation</t>
-  </si>
-  <si>
     <t>now().getTime()</t>
+  </si>
+  <si>
+    <t>override_user</t>
+  </si>
+  <si>
+    <t>calculation_name</t>
+  </si>
+  <si>
+    <t>calculates.age()</t>
+  </si>
+  <si>
+    <t>(function() { 
+    var ageDifMs = Date.now() - data('birth_date').getTime();
+    var ageDate = new Date(ageDifMs); 
+    var years = Math.abs(ageDate.getUTCFullYear() - 1970);
+    var months = ageDate.getUTCMonth();
+    var days = ageDate.getUTCDate();
+    var daysOfMonth = [31, 28, 31, 30, 31, 30, 31, 31, 30, 31, 30, 31]; 
+    var daysInCurrYear = 0;
+    for (var i = 0; i &lt; months; i++) {
+     daysInCurrYear += daysOfMonth[i];
+    }
+    daysInCurrYear += days;
+    var age = years + (daysInCurrYear / 365.0);
+    return age;
+})()</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Capture current location</t>
+  </si>
+  <si>
+    <t>geopoint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,6 +356,13 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -548,7 +540,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -564,6 +555,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -919,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -943,144 +935,141 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="b">
+      <c r="A3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28" t="b">
+      <c r="A4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="22"/>
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>88</v>
+        <v>70</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1088,184 +1077,96 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>87</v>
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>70</v>
+        <v>37</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1297,26 +1198,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="7">
         <v>20160805</v>
@@ -1324,26 +1225,26 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1358,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1384,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1408,23 +1309,23 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1432,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1440,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1448,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1456,7 +1357,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1464,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1472,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1480,7 +1381,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1488,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1496,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1504,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1512,7 +1413,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1520,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1528,44 +1429,15 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1589,37 +1461,37 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="18" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="18"/>
-    <col min="4" max="4" width="69" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="19.83203125" style="17" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="17"/>
+    <col min="4" max="4" width="69" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1644,157 +1516,197 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:3" ht="30">
-      <c r="A1" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>17</v>
+      <c r="A1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
         <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
         <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
-        <v>77</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="81.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="225">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
   <si>
     <t>type</t>
   </si>
@@ -140,12 +140,6 @@
     <t>What is your current address?</t>
   </si>
   <si>
-    <t>distribution_site</t>
-  </si>
-  <si>
-    <t>What is the name of the distribution site?</t>
-  </si>
-  <si>
     <t>mobile_provider</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
   </si>
   <si>
     <t>now().getTime()</t>
-  </si>
-  <si>
-    <t>override_user</t>
   </si>
   <si>
     <t>calculation_name</t>
@@ -302,6 +293,15 @@
   </si>
   <si>
     <t>geopoint</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>delivery_site</t>
+  </si>
+  <si>
+    <t>What is the name of the intended delivery site?</t>
   </si>
 </sst>
 </file>
@@ -911,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -927,7 +927,7 @@
     <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,10 +944,13 @@
         <v>26</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -955,15 +958,15 @@
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="23"/>
@@ -972,12 +975,12 @@
       </c>
       <c r="F3" s="21"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
@@ -986,7 +989,7 @@
       </c>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -999,8 +1002,11 @@
       <c r="D5" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1013,8 +1019,11 @@
       <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -1025,79 +1034,88 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1110,19 +1128,22 @@
       <c r="D14" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -1130,38 +1151,44 @@
         <v>6</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="G17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="G18" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
@@ -1212,7 +1239,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1228,7 +1255,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1259,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1314,10 +1341,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1325,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1333,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1341,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1349,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1357,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1373,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1389,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1405,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1413,7 +1440,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1421,23 +1448,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1517,10 +1536,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30">
       <c r="A1" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>16</v>
@@ -1528,145 +1547,145 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1695,7 +1714,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>26</v>
@@ -1703,10 +1722,10 @@
     </row>
     <row r="2" spans="1:2" ht="225">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="initial" sheetId="4" r:id="rId4"/>
     <sheet name="choices" sheetId="5" r:id="rId5"/>
     <sheet name="calculates" sheetId="6" r:id="rId6"/>
+    <sheet name="properties" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
   <si>
     <t>type</t>
   </si>
@@ -302,6 +303,27 @@
   </si>
   <si>
     <t>What is the name of the intended delivery site?</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>filterTypeOnCreation</t>
+  </si>
+  <si>
+    <t>READ_ONLY</t>
   </si>
 </sst>
 </file>
@@ -522,7 +544,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -556,6 +578,9 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -913,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1736,4 +1761,58 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="1940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -199,18 +199,6 @@
   </si>
   <si>
     <t>sites</t>
-  </si>
-  <si>
-    <t>districts</t>
-  </si>
-  <si>
-    <t>cities</t>
-  </si>
-  <si>
-    <t>villages</t>
-  </si>
-  <si>
-    <t>sub-villages</t>
   </si>
   <si>
     <t>a2</t>
@@ -323,7 +311,25 @@
     <t>filterTypeOnCreation</t>
   </si>
   <si>
-    <t>READ_ONLY</t>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>MODIFY</t>
+  </si>
+  <si>
+    <t>sectors</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>What sector are you located in?</t>
   </si>
 </sst>
 </file>
@@ -936,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -972,7 +978,7 @@
         <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -983,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -991,7 +997,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="23"/>
@@ -1005,7 +1011,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
@@ -1061,13 +1067,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>73</v>
+        <v>96</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="G8" s="3" t="b">
         <v>1</v>
@@ -1075,41 +1084,44 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>80</v>
+        <v>45</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="3" t="b">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>70</v>
+        <v>48</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1117,44 +1129,38 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="3" t="b">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="G13" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="3" t="b">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1162,10 +1168,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1173,13 +1185,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1187,27 +1196,27 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="3" t="b">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>83</v>
+        <v>42</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="G18" s="3" t="b">
         <v>1</v>
@@ -1215,9 +1224,20 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1264,7 +1284,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1280,7 +1300,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1311,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1377,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1393,7 +1413,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1401,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1409,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1457,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1465,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1473,15 +1493,23 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1551,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1600,7 +1628,7 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1611,7 +1639,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1619,10 +1647,10 @@
         <v>57</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1630,87 +1658,43 @@
         <v>57</v>
       </c>
       <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
         <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1739,7 +1723,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>26</v>
@@ -1747,10 +1731,10 @@
     </row>
     <row r="2" spans="1:2" ht="225">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1768,20 +1752,20 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>0</v>
@@ -1792,19 +1776,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/odk_repos/app-designer/app/config/tables/registration/forms/registration/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="1940" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,6 +22,9 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
   <si>
     <t>type</t>
   </si>
@@ -314,9 +322,6 @@
     <t>sector</t>
   </si>
   <si>
-    <t>MODIFY</t>
-  </si>
-  <si>
     <t>sectors</t>
   </si>
   <si>
@@ -330,6 +335,18 @@
   </si>
   <si>
     <t>What sector are you located in?</t>
+  </si>
+  <si>
+    <t>HIDDEN</t>
+  </si>
+  <si>
+    <t>locked</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -550,7 +567,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -587,6 +604,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -617,6 +635,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -948,7 +971,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.83203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="5" customWidth="1"/>
@@ -958,7 +981,7 @@
     <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -981,7 +1004,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -992,7 +1015,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>25</v>
       </c>
@@ -1006,7 +1029,7 @@
       </c>
       <c r="F3" s="21"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>25</v>
       </c>
@@ -1020,7 +1043,7 @@
       </c>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1037,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1054,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -1065,7 +1088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>46</v>
       </c>
@@ -1073,16 +1096,16 @@
         <v>90</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
@@ -1096,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1107,7 +1130,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
@@ -1124,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1135,7 +1158,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
@@ -1163,7 +1186,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1180,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -1191,7 +1214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -1205,7 +1228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
@@ -1222,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>80</v>
       </c>
@@ -1233,7 +1256,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
@@ -1244,11 +1267,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1260,7 +1278,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" style="7" customWidth="1"/>
@@ -1268,7 +1286,7 @@
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -1279,7 +1297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1287,7 +1305,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1295,7 +1313,7 @@
         <v>20160805</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1303,7 +1321,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1311,7 +1329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -1321,11 +1339,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1337,14 +1350,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="26" style="5"/>
     <col min="3" max="16384" width="26" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1360,7 +1373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1368,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1376,7 +1389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
@@ -1392,7 +1405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -1400,7 +1413,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1408,7 +1421,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1416,7 +1429,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1424,7 +1437,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
@@ -1432,7 +1445,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1440,7 +1453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
@@ -1448,7 +1461,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1456,7 +1469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1464,7 +1477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -1472,7 +1485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -1480,7 +1493,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
@@ -1488,7 +1501,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
@@ -1496,7 +1509,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1504,7 +1517,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>80</v>
       </c>
@@ -1515,11 +1528,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1531,7 +1539,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" style="17" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="17"/>
@@ -1539,7 +1547,7 @@
     <col min="5" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
@@ -1553,12 +1561,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>33</v>
       </c>
@@ -1569,11 +1577,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1585,9 +1588,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="30">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>49</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1664,46 +1667,41 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
         <v>93</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
         <v>94</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1715,13 +1713,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.1640625" customWidth="1"/>
     <col min="2" max="2" width="81.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>75</v>
       </c>
@@ -1729,7 +1727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="225">
+    <row r="2" spans="1:2" ht="240" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1739,25 +1737,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>84</v>
       </c>
@@ -1774,7 +1767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>87</v>
       </c>
@@ -1788,15 +1781,30 @@
         <v>2</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>91</v>
-      </c>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/odk_repos/app-designer/app/config/tables/registration/forms/registration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/app/config/tables/registration/forms/registration/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -340,20 +340,20 @@
     <t>HIDDEN</t>
   </si>
   <si>
-    <t>locked</t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
-    <t>true</t>
+    <t>unverifiedUserCanCreate</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -409,6 +409,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="12">
@@ -567,7 +572,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -605,6 +610,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1745,7 +1751,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1791,11 +1797,11 @@
       <c r="B3" t="s">
         <v>88</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
         <v>97</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>99</v>

--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="1940" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="94">
   <si>
     <t>type</t>
   </si>
@@ -213,18 +213,6 @@
   </si>
   <si>
     <t>a3</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>age</t>
@@ -319,24 +307,6 @@
     <t>filterTypeOnCreation</t>
   </si>
   <si>
-    <t>sector</t>
-  </si>
-  <si>
-    <t>sectors</t>
-  </si>
-  <si>
-    <t>North</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>Central</t>
-  </si>
-  <si>
-    <t>What sector are you located in?</t>
-  </si>
-  <si>
     <t>HIDDEN</t>
   </si>
   <si>
@@ -347,6 +317,18 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>Site A</t>
+  </si>
+  <si>
+    <t>Site B</t>
+  </si>
+  <si>
+    <t>Site C</t>
+  </si>
+  <si>
+    <t>Site D</t>
   </si>
 </sst>
 </file>
@@ -971,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1007,7 +989,7 @@
         <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1018,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1026,7 +1008,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="23"/>
@@ -1040,7 +1022,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
@@ -1096,16 +1078,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="G8" s="3" t="b">
         <v>1</v>
@@ -1113,44 +1092,41 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="3" t="b">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>76</v>
+        <v>47</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="3" t="b">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1158,38 +1134,41 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="G12" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="3" t="b">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1197,16 +1176,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="3" t="b">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1214,10 +1187,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1225,48 +1201,34 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="G17" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="3" t="b">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1308,7 +1270,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1324,7 +1286,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1350,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1416,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1432,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1440,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1448,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1496,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1504,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1512,23 +1474,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1588,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1637,7 +1591,7 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1648,7 +1602,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1659,7 +1613,7 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1670,40 +1624,7 @@
         <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1727,7 +1648,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>26</v>
@@ -1735,10 +1656,10 @@
     </row>
     <row r="2" spans="1:2" ht="240" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1758,13 +1679,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>0</v>
@@ -1775,36 +1696,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
       <c r="E3" s="30" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>display.text</t>
-  </si>
-  <si>
-    <t>display.hint</t>
   </si>
   <si>
     <t>What is your last Name?</t>
@@ -329,6 +326,18 @@
   </si>
   <si>
     <t>Site D</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>begin screen</t>
+  </si>
+  <si>
+    <t>end screen</t>
   </si>
 </sst>
 </file>
@@ -953,283 +962,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.5" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="14.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.5" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="10" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23" t="b">
+      <c r="D15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="5" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1303,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1286,7 +1319,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1294,15 +1327,15 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1362,15 +1395,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1378,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1386,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1394,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1402,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1410,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1426,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1442,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1458,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1466,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1474,15 +1507,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1542,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
@@ -1518,20 +1551,20 @@
         <v>16</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1552,10 +1585,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>16</v>
@@ -1563,68 +1596,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1648,18 +1681,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="240" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1679,13 +1712,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>81</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>82</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>0</v>
@@ -1696,36 +1729,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
       <c r="C3" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1940" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -338,6 +335,9 @@
   </si>
   <si>
     <t>end screen</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
@@ -964,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -981,7 +981,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -990,38 +990,38 @@
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>94</v>
-      </c>
       <c r="F1" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="27"/>
@@ -1052,10 +1052,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="3" t="b">
         <v>1</v>
@@ -1069,10 +1069,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="H6" s="3" t="b">
         <v>1</v>
@@ -1080,24 +1080,24 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="D8" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="3" t="b">
         <v>1</v>
@@ -1105,27 +1105,27 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3" t="b">
         <v>1</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1141,10 +1141,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1152,10 +1152,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="H13" s="3" t="b">
         <v>1</v>
@@ -1163,21 +1163,21 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1188,15 +1188,15 @@
         <v>5</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1204,10 +1204,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1218,15 +1218,15 @@
         <v>6</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1234,13 +1234,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="H21" s="3" t="b">
         <v>1</v>
@@ -1248,21 +1248,21 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1275,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1295,20 +1295,20 @@
         <v>10</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7">
         <v>20160805</v>
@@ -1316,26 +1316,26 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1395,15 +1395,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1411,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1419,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1427,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1443,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1459,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1475,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1491,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1499,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1507,15 +1507,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1542,29 +1542,29 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1585,79 +1585,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>49</v>
-      </c>
       <c r="C1" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1681,18 +1681,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="240" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1712,13 +1712,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>81</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>0</v>
@@ -1729,36 +1729,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>84</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
         <v>82</v>
       </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
       <c r="C3" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6820" yWindow="3780" windowWidth="10000" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="settings" sheetId="3" r:id="rId2"/>
-    <sheet name="model" sheetId="2" r:id="rId3"/>
-    <sheet name="initial" sheetId="4" r:id="rId4"/>
-    <sheet name="choices" sheetId="5" r:id="rId5"/>
-    <sheet name="calculates" sheetId="6" r:id="rId6"/>
-    <sheet name="properties" sheetId="7" r:id="rId7"/>
+    <sheet name="table_specific_translations" sheetId="8" r:id="rId3"/>
+    <sheet name="model" sheetId="2" r:id="rId4"/>
+    <sheet name="initial" sheetId="4" r:id="rId5"/>
+    <sheet name="choices" sheetId="5" r:id="rId6"/>
+    <sheet name="calculates" sheetId="6" r:id="rId7"/>
+    <sheet name="properties" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -338,6 +339,54 @@
   </si>
   <si>
     <t>display.title.text</t>
+  </si>
+  <si>
+    <t>string_token</t>
+  </si>
+  <si>
+    <t>text.default</t>
+  </si>
+  <si>
+    <t>text.spanish</t>
+  </si>
+  <si>
+    <t>ID Number</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Telephon</t>
+  </si>
+  <si>
+    <t>Mobile Provider</t>
+  </si>
+  <si>
+    <t>enable_success</t>
+  </si>
+  <si>
+    <t>disable_success</t>
+  </si>
+  <si>
+    <t>Successfully Enabled!</t>
+  </si>
+  <si>
+    <t>Successfully Disabled!</t>
+  </si>
+  <si>
+    <t>choose_entitlement</t>
+  </si>
+  <si>
+    <t>Choose an Entitlement To Deliver</t>
+  </si>
+  <si>
+    <t>no_entitlements</t>
+  </si>
+  <si>
+    <t>No Entitlements to Deliver</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1344,6 +1393,104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -1524,7 +1671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1573,7 +1720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1665,7 +1812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1700,7 +1847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>

--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="3780" windowWidth="10000" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6820" yWindow="620" windowWidth="20580" windowHeight="16060" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -299,9 +299,6 @@
     <t>security</t>
   </si>
   <si>
-    <t>filterTypeOnCreation</t>
-  </si>
-  <si>
     <t>HIDDEN</t>
   </si>
   <si>
@@ -344,9 +341,6 @@
     <t>string_token</t>
   </si>
   <si>
-    <t>text.default</t>
-  </si>
-  <si>
     <t>text.spanish</t>
   </si>
   <si>
@@ -387,6 +381,12 @@
   </si>
   <si>
     <t>No Entitlements to Deliver</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>defaultAccessOnCreation</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1039,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>24</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1212,7 +1212,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1245,7 +1245,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1275,7 +1275,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1344,7 +1344,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1396,21 +1396,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1426,15 +1426,15 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1450,39 +1450,39 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
         <v>105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
         <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1771,7 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1782,7 +1782,7 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1793,7 +1793,7 @@
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1804,7 +1804,7 @@
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1851,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1882,13 +1882,13 @@
         <v>82</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>83</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1899,13 +1899,13 @@
         <v>82</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>86</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/app/config/tables/registration/forms/registration/registration.xlsx
+++ b/app/config/tables/registration/forms/registration/registration.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="19140" tabRatio="994"/>
+    <workbookView xWindow="3060" yWindow="80" windowWidth="44040" windowHeight="24600" tabRatio="994" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="settings" sheetId="2" r:id="rId2"/>
     <sheet name="table_specific_translations" sheetId="3" r:id="rId3"/>
     <sheet name="model" sheetId="4" r:id="rId4"/>
-    <sheet name="initial" sheetId="5" r:id="rId5"/>
-    <sheet name="choices" sheetId="6" r:id="rId6"/>
-    <sheet name="calculates" sheetId="7" r:id="rId7"/>
-    <sheet name="properties" sheetId="8" r:id="rId8"/>
-    <sheet name="queries" sheetId="9" r:id="rId9"/>
-    <sheet name="prompt_types" sheetId="10" r:id="rId10"/>
+    <sheet name="choices" sheetId="6" r:id="rId5"/>
+    <sheet name="calculates" sheetId="7" r:id="rId6"/>
+    <sheet name="properties" sheetId="8" r:id="rId7"/>
+    <sheet name="queries" sheetId="9" r:id="rId8"/>
+    <sheet name="prompt_types" sheetId="10" r:id="rId9"/>
+    <sheet name="initial" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -147,9 +147,6 @@
     <t>Telephone number</t>
   </si>
   <si>
-    <t>(telephone.length &gt; 6)</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
@@ -472,13 +469,16 @@
   </si>
   <si>
     <t>User {{data.verify_user}} already exists.  Continue if you are sure.  Otherwise, Ignore Changes + Exit.</t>
+  </si>
+  <si>
+    <t>isSessionVariable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -505,6 +505,22 @@
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -614,8 +630,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -680,7 +702,13 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1080,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1093,7 +1121,10 @@
     <col min="5" max="5" width="44.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="32.33203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="34.5" style="5" customWidth="1"/>
-    <col min="8" max="1023" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="34.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.1640625" style="1" customWidth="1"/>
+    <col min="11" max="1023" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1414,11 +1445,9 @@
       </c>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17" t="s">
+      <c r="I17"/>
+      <c r="J17" t="s">
         <v>38</v>
-      </c>
-      <c r="J17" t="s">
-        <v>39</v>
       </c>
       <c r="K17"/>
     </row>
@@ -1426,7 +1455,7 @@
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>12</v>
@@ -1435,7 +1464,7 @@
       <c r="F18" s="23"/>
       <c r="G18"/>
       <c r="H18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K18"/>
     </row>
@@ -1454,14 +1483,11 @@
       <c r="J19"/>
       <c r="K19"/>
     </row>
-    <row r="20" spans="1:11" ht="46">
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="24"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="27"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
@@ -1471,135 +1497,138 @@
       <c r="J20"/>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:11" ht="69">
+    <row r="21" spans="1:11">
       <c r="A21"/>
-      <c r="C21" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21" s="26" t="s">
-        <v>146</v>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
-      <c r="K21"/>
+      <c r="K21" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22" s="24"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
+      <c r="A22"/>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="H22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23" s="24"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24"/>
-      <c r="C24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24"/>
+        <v>28</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" ht="46">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" s="24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
-      <c r="K24" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:11" ht="69">
       <c r="A25"/>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="13"/>
+      <c r="C25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="F25" s="14"/>
-      <c r="G25" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="G25" s="14"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26"/>
-      <c r="C26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="H26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26" s="24"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A28"/>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="13"/>
       <c r="F28" s="14"/>
+      <c r="G28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29"/>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="F29" s="14"/>
       <c r="H29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K29"/>
     </row>
@@ -1609,29 +1638,29 @@
         <v>19</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="K30"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31"/>
       <c r="C31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="K31" s="1" t="b">
         <f>TRUE()</f>
@@ -1648,26 +1677,26 @@
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1678,81 +1707,51 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45">
+    <row r="1" spans="1:4">
       <c r="A1" s="33" t="s">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="45">
+      <c r="C1" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30">
+        <v>98</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+    </row>
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30">
-      <c r="A4" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45">
-      <c r="A6" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45">
-      <c r="A7" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>19</v>
+        <v>99</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1778,27 +1777,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>73</v>
       </c>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="29">
         <v>20160805</v>
@@ -1807,25 +1806,25 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>26</v>
@@ -1854,21 +1853,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1876,15 +1875,15 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1892,7 +1891,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1900,39 +1899,39 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
         <v>87</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
         <v>89</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
         <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
         <v>93</v>
-      </c>
-      <c r="B10" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1951,25 +1950,28 @@
   <dimension ref="A1:AMK21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="2"/>
-    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="53.1640625" style="3" customWidth="1"/>
     <col min="3" max="1025" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1977,7 +1979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1985,7 +1987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1993,7 +1995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2001,31 +2003,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2033,7 +2035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2041,23 +2043,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2065,7 +2067,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2073,20 +2075,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2102,7 +2104,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2115,10 +2117,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2145,43 +2147,89 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1025" width="8.83203125" style="33"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45">
-      <c r="A2" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" ht="225">
-      <c r="A3" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="33" t="s">
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="34" t="s">
         <v>101</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2197,89 +2245,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="44.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30">
-      <c r="A1" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="165">
       <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
+        <v>48</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2295,28 +2285,63 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="409">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2332,63 +2357,76 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="31.83203125" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="35" t="s">
+    <row r="1" spans="1:9" ht="30">
+      <c r="A1" s="38" t="s">
         <v>125</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45">
+      <c r="A2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2404,70 +2442,76 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="75">
-      <c r="A1" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="165">
+    <row r="1" spans="1:2" ht="45">
+      <c r="A1" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45">
       <c r="A2" s="33" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>138</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45">
+      <c r="A5" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45">
+      <c r="A6" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45">
+      <c r="A7" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
